--- a/SchedulingData/static3/pso/scheduling1_5.xlsx
+++ b/SchedulingData/static3/pso/scheduling1_5.xlsx
@@ -462,83 +462,83 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>77.68000000000001</v>
+        <v>65.88</v>
       </c>
       <c r="E2" t="n">
-        <v>25.392</v>
+        <v>25.112</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>85.2</v>
+        <v>75</v>
       </c>
       <c r="E3" t="n">
-        <v>24.66</v>
+        <v>24.68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>65.88</v>
       </c>
       <c r="D4" t="n">
-        <v>66.92</v>
+        <v>142.96</v>
       </c>
       <c r="E4" t="n">
-        <v>27.448</v>
+        <v>20.504</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>66.92</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>108.08</v>
+        <v>58</v>
       </c>
       <c r="E5" t="n">
-        <v>23.972</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -561,60 +561,60 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>84.98</v>
       </c>
       <c r="D7" t="n">
-        <v>69.45999999999999</v>
+        <v>144.48</v>
       </c>
       <c r="E7" t="n">
-        <v>26.744</v>
+        <v>21.792</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>84.98</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>153.88</v>
+        <v>90.2</v>
       </c>
       <c r="E8" t="n">
-        <v>20.872</v>
+        <v>24.66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D9" t="n">
-        <v>71.09999999999999</v>
+        <v>116.86</v>
       </c>
       <c r="E9" t="n">
-        <v>25.06</v>
+        <v>21.644</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -622,32 +622,32 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>69.45999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="D10" t="n">
-        <v>107.26</v>
+        <v>132.9</v>
       </c>
       <c r="E10" t="n">
-        <v>24.104</v>
+        <v>22.02</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>77.68000000000001</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>132.78</v>
+        <v>70.28</v>
       </c>
       <c r="E11" t="n">
-        <v>21.992</v>
+        <v>25.632</v>
       </c>
     </row>
     <row r="12">
@@ -656,264 +656,264 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>132.78</v>
+        <v>132.9</v>
       </c>
       <c r="D12" t="n">
-        <v>184.72</v>
+        <v>202.7</v>
       </c>
       <c r="E12" t="n">
-        <v>18.428</v>
+        <v>18.62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>153.88</v>
+        <v>142.96</v>
       </c>
       <c r="D13" t="n">
-        <v>208.02</v>
+        <v>206.76</v>
       </c>
       <c r="E13" t="n">
-        <v>17.568</v>
+        <v>15.744</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>85.2</v>
+        <v>144.48</v>
       </c>
       <c r="D14" t="n">
-        <v>150.28</v>
+        <v>197.52</v>
       </c>
       <c r="E14" t="n">
-        <v>19.772</v>
+        <v>19.088</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>71.09999999999999</v>
+        <v>202.7</v>
       </c>
       <c r="D15" t="n">
-        <v>140.2</v>
+        <v>244.52</v>
       </c>
       <c r="E15" t="n">
-        <v>19.78</v>
+        <v>16.068</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>107.26</v>
+        <v>116.86</v>
       </c>
       <c r="D16" t="n">
-        <v>174.56</v>
+        <v>202.46</v>
       </c>
       <c r="E16" t="n">
-        <v>19.004</v>
+        <v>16.704</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>150.28</v>
+        <v>202.46</v>
       </c>
       <c r="D17" t="n">
-        <v>229.96</v>
+        <v>246.9</v>
       </c>
       <c r="E17" t="n">
-        <v>15.404</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>108.08</v>
+        <v>75</v>
       </c>
       <c r="D18" t="n">
-        <v>178.58</v>
+        <v>125.08</v>
       </c>
       <c r="E18" t="n">
-        <v>20.052</v>
+        <v>21.292</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>184.72</v>
+        <v>70.28</v>
       </c>
       <c r="D19" t="n">
-        <v>241.22</v>
+        <v>121.24</v>
       </c>
       <c r="E19" t="n">
-        <v>15.868</v>
+        <v>22.156</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>140.2</v>
+        <v>197.52</v>
       </c>
       <c r="D20" t="n">
-        <v>219.6</v>
+        <v>249.92</v>
       </c>
       <c r="E20" t="n">
-        <v>14.46</v>
+        <v>15.488</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>174.56</v>
+        <v>206.76</v>
       </c>
       <c r="D21" t="n">
-        <v>208</v>
+        <v>268.26</v>
       </c>
       <c r="E21" t="n">
-        <v>16.3</v>
+        <v>13.184</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>178.58</v>
+        <v>125.08</v>
       </c>
       <c r="D22" t="n">
-        <v>228.28</v>
+        <v>175.58</v>
       </c>
       <c r="E22" t="n">
-        <v>16.212</v>
+        <v>17.372</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>228.28</v>
+        <v>175.58</v>
       </c>
       <c r="D23" t="n">
-        <v>282.12</v>
+        <v>227.52</v>
       </c>
       <c r="E23" t="n">
-        <v>13.968</v>
+        <v>13.808</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>229.96</v>
+        <v>121.24</v>
       </c>
       <c r="D24" t="n">
-        <v>295.24</v>
+        <v>200.24</v>
       </c>
       <c r="E24" t="n">
-        <v>12.016</v>
+        <v>16.876</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>219.6</v>
+        <v>244.52</v>
       </c>
       <c r="D25" t="n">
-        <v>286.8</v>
+        <v>283.16</v>
       </c>
       <c r="E25" t="n">
-        <v>10.86</v>
+        <v>13.824</v>
       </c>
     </row>
   </sheetData>
